--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="360">
   <si>
     <t>app_id</t>
   </si>
@@ -100,6 +100,12 @@
     <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu15-19</t>
   </si>
   <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu20-24</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu25-29</t>
+  </si>
+  <si>
     <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu15-19</t>
   </si>
   <si>
@@ -178,24 +184,6 @@
     <t>form.copy-1-of-grpHTS.linkages_due_to_hiv_test_results.total_hiv_positive_linked_to_care</t>
   </si>
   <si>
-    <t>form.copy-1-of-grpHTS.other_referrals_in_detail.ReferrelRecordingMonth</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-grpHTS.other_referrals_in_detail.ReferrelRecordingSite</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-grpHTS.other_referrals_in_detail.ReferrelRecordingYear</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-grpHTS.other_referrals_in_detail.question1.cancelthisReferralReport</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-grpHTS.other_referrals_in_detail.question1.question5.reason_for_referral</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-grpHTS.other_referrals_in_detail.question1.question5.services_referred</t>
-  </si>
-  <si>
     <t>form.copy-1-of-grpHTS.referralToOtherServices</t>
   </si>
   <si>
@@ -205,6 +193,9 @@
     <t>form.copy-1-of-grpHTS.referrals_to_sti_and_srh_services.total_mcs_referred_for_sti_services</t>
   </si>
   <si>
+    <t>form.copy-1-of-location_details.District</t>
+  </si>
+  <si>
     <t>form.copy-1-of-location_details.checkifFacilityHasBeenSaved</t>
   </si>
   <si>
@@ -214,9 +205,6 @@
     <t>form.copy-1-of-location_details.currentFacilityAlias</t>
   </si>
   <si>
-    <t>form.copy-1-of-location_details.districtName</t>
-  </si>
-  <si>
     <t>form.copy-1-of-location_details.facilityName</t>
   </si>
   <si>
@@ -337,9 +325,21 @@
     <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
   </si>
   <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative25-29</t>
+  </si>
+  <si>
     <t>form.grpHTS.hiv_negativeList.hivnegative15-19qst</t>
   </si>
   <si>
+    <t>form.grpHTS.hiv_negativeList.hivnegative20-24sqt</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivnegative25-29sqt</t>
+  </si>
+  <si>
     <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
   </si>
   <si>
@@ -520,6 +520,12 @@
     <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
   </si>
   <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable25-29</t>
+  </si>
+  <si>
     <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
   </si>
   <si>
@@ -709,61 +715,157 @@
     <t>metadata.username</t>
   </si>
   <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu20-24</t>
-  </si>
-  <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu30-34</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative30-34</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivnegative20-24sqt</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivnegative30-34sqt</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable30-34</t>
+    <t>form.grpHTS.hiv_positiveList.hiv25-29posqst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.copy-2-of-question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh35-39</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh40-44</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh45-49</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh50</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh15-19Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh20-24Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh25-29Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh30-34Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh35-39Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh40-44Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh45-49Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh50Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.shangring25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.total_shangringMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.copy-2-of-question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr35-39</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr40-44</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr45-49</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr50</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr15-19Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr20-24Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr25-29Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr30-34Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr35-39Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr40-44Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr45-49Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr50Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.total_surgicalReusable</t>
   </si>
   <si>
     <t>6a11bca4c881210cf9c483b6820268e0</t>
   </si>
   <si>
-    <t>ec6ac5dc296d4106a3e9782125211a1f</t>
+    <t>77b794b4dd6b41599cd6e89f08717910</t>
   </si>
   <si>
     <t>zdip-qa</t>
   </si>
   <si>
-    <t>e97c4849-d4eb-4dcd-ae66-e93506299a68</t>
-  </si>
-  <si>
-    <t>33e13c8e-5f10-41e4-b796-e05690d474a6</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:33:38.935649Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:19:08.565984Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:32:49.439658Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:19:08.369689Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:32:49.500963Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:19:08.435266Z</t>
+    <t>c75cba9f-401b-4664-a697-a08f3da4d922</t>
+  </si>
+  <si>
+    <t>35209334-720f-49ca-868c-6c79b5348138</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:39:30.922681Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:38:20.250053Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:39:22.600099Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:38:20.107637Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:39:22.710142Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:38:20.198670Z</t>
   </si>
   <si>
     <t>197.211.198.18</t>
@@ -775,16 +877,16 @@
     <t>1</t>
   </si>
   <si>
-    <t>113</t>
+    <t>116</t>
   </si>
   <si>
     <t>text/xml</t>
   </si>
   <si>
-    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/e97c4849-d4eb-4dcd-ae66-e93506299a68/form.xml</t>
-  </si>
-  <si>
-    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/33e13c8e-5f10-41e4-b796-e05690d474a6/form.xml</t>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/c75cba9f-401b-4664-a697-a08f3da4d922/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/35209334-720f-49ca-868c-6c79b5348138/form.xml</t>
   </si>
   <si>
     <t>ZAZIC COLLECTION FORM</t>
@@ -793,202 +895,199 @@
     <t>http://openrosa.org/formdesigner/D87D048D-B77D-4142-8E22-8B67A5FFA08C</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Age group(s)               need to be updated for Client Follow-up Section</t>
+  </si>
+  <si>
+    <t>bb29df93297446d99460cc39ccfc527e</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:39:20.954000Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:38:18.312000Z</t>
+  </si>
+  <si>
+    <t>148b582ced074b30a11c93abdad751e5</t>
+  </si>
+  <si>
+    <t>http://commcarehq.org/case/transaction/v2</t>
+  </si>
+  <si>
+    <t>Kezi,MbembeswanaNatisaBeula,SankonjanaOct2024NatisaOct2024KeziOct2024Maphisa HospitalOctober2024BeulaOctober2024SankonjanaOctober2024BeulaNovember2024BeulaSeptember2024BeulaMay2024MbembeswanaSeptember2024NatisaSeptember2024Maphisa HospitalSeptember2024KeziSeptember2024SankonjanaSeptember2024KeziOctober2024MbembeswanaOctober2024MbembeswanaNovember2024KeziDecember2024SankonjanaDecember2024BeulaJanuary2025MbembeswanaJanuary2025BeulaFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Gaha ClinicFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Gaha ClinicMarch2025Mnene HospitalFebruary2025Mnene HospitalFebruary2025Gaha ClinicJanuary2025Mnene HospitalMarch2026Chiedza ClinicMarch2025Chiedza ClinicMarch2025GOKWE SOUTHGanye ClinicApril2025LUPANEFatima Mission ClinicApril2025</t>
+  </si>
+  <si>
+    <t>Kezi,MbembeswanaNatisaBeula,SankonjanaOct2024NatisaOct2024KeziOct2024Maphisa HospitalOctober2024BeulaOctober2024SankonjanaOctober2024BeulaNovember2024BeulaSeptember2024BeulaMay2024MbembeswanaSeptember2024NatisaSeptember2024Maphisa HospitalSeptember2024KeziSeptember2024SankonjanaSeptember2024KeziOctober2024MbembeswanaOctober2024MbembeswanaNovember2024KeziDecember2024SankonjanaDecember2024BeulaJanuary2025MbembeswanaJanuary2025BeulaFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Gaha ClinicFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Gaha ClinicMarch2025Mnene HospitalFebruary2025Mnene HospitalFebruary2025Gaha ClinicJanuary2025Mnene HospitalMarch2026Chiedza ClinicMarch2025Chiedza ClinicMarch2025GOKWE SOUTHGanye ClinicApril2025</t>
+  </si>
+  <si>
+    <t>LUPANE</t>
+  </si>
+  <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
+    <t>LUPANEFatima Mission ClinicApril2025</t>
+  </si>
+  <si>
+    <t>GOKWE SOUTHGanye ClinicApril2025</t>
+  </si>
+  <si>
+    <t>Fatima Mission Clinic</t>
+  </si>
+  <si>
+    <t>Ganye Clinic</t>
+  </si>
+  <si>
+    <t>The chosen Facility  was already recorded for the time period April 2025 Choose a facility not yet recorded in the Server</t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 15-19 yrs which equates to 2</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 20-24 yrs which equates to 6</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 20-24 yrs which equates to 1</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 25-29 yrs which equates to 2</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 25-29 yrs which equates to 5</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 30-34 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 35-39 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 40-44 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 45-49 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input must be equal to or less than the total MCs in the age group 50+ yrs, which equates to </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 15-19  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 20-24  which is  6</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 20-24  which is  1</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 25-29  which is  2</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 25-29  which is  5</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 30-34  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 35-39  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 40-44  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 45-49  which is  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 45-49  which is  </t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Age group(s)               need to be updated for HTS</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Age group(s)               need to be updated for Client Follow-up Section</t>
-  </si>
-  <si>
-    <t>bb29df93297446d99460cc39ccfc527e</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:32:47.386000Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:19:06.735000Z</t>
-  </si>
-  <si>
-    <t>148b582ced074b30a11c93abdad751e5</t>
-  </si>
-  <si>
-    <t>http://commcarehq.org/case/transaction/v2</t>
-  </si>
-  <si>
-    <t>Kezi,MbembeswanaNatisaBeula,SankonjanaOct2024NatisaOct2024KeziOct2024Maphisa HospitalOctober2024BeulaOctober2024SankonjanaOctober2024BeulaNovember2024BeulaSeptember2024BeulaMay2024MbembeswanaSeptember2024NatisaSeptember2024Maphisa HospitalSeptember2024KeziSeptember2024SankonjanaSeptember2024KeziOctober2024MbembeswanaOctober2024MbembeswanaNovember2024KeziDecember2024SankonjanaDecember2024BeulaJanuary2025MbembeswanaJanuary2025BeulaFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Gaha ClinicFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Gaha ClinicMarch2025Mnene HospitalFebruary2025Mnene HospitalFebruary2025Gaha ClinicJanuary2025Mnene HospitalMarch2026Chiedza ClinicMarch2025Chiedza ClinicMarch2025GOKWE SOUTHMarch2025LUPANEFebruary2025</t>
-  </si>
-  <si>
-    <t>Kezi,MbembeswanaNatisaBeula,SankonjanaOct2024NatisaOct2024KeziOct2024Maphisa HospitalOctober2024BeulaOctober2024SankonjanaOctober2024BeulaNovember2024BeulaSeptember2024BeulaMay2024MbembeswanaSeptember2024NatisaSeptember2024Maphisa HospitalSeptember2024KeziSeptember2024SankonjanaSeptember2024KeziOctober2024MbembeswanaOctober2024MbembeswanaNovember2024KeziDecember2024SankonjanaDecember2024BeulaJanuary2025MbembeswanaJanuary2025BeulaFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Mnene HospitalFebruary2025Chiedza ClinicFebruary2025Gaha ClinicFebruary2025Sandawana ClinicFebruary2025Mnene HospitalFebruary2025Gaha ClinicMarch2025Mnene HospitalFebruary2025Mnene HospitalFebruary2025Gaha ClinicJanuary2025Mnene HospitalMarch2026Chiedza ClinicMarch2025Chiedza ClinicMarch2025GOKWE SOUTHMarch2025</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>LUPANE</t>
+    <t>15-19 yrs</t>
+  </si>
+  <si>
+    <t>20-24 yrs</t>
+  </si>
+  <si>
+    <t>25-29 yrs</t>
+  </si>
+  <si>
+    <t>30-34 yrs</t>
+  </si>
+  <si>
+    <t>35-39 yrs</t>
+  </si>
+  <si>
+    <t>40-44 yrs</t>
+  </si>
+  <si>
+    <t>45-49 yrs</t>
+  </si>
+  <si>
+    <t>50+ yrs</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/jr/xforms</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v116. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
+    <t>2.56.1</t>
+  </si>
+  <si>
+    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:38:23.263000Z</t>
+  </si>
+  <si>
+    <t>2025-05-19T13:36:59.057000Z</t>
+  </si>
+  <si>
+    <t>amutenha</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
   <si>
     <t>2025</t>
-  </si>
-  <si>
-    <t>Client had a low viral count</t>
-  </si>
-  <si>
-    <t>Viral Load</t>
-  </si>
-  <si>
-    <t>LUPANEFebruary2025</t>
-  </si>
-  <si>
-    <t>GOKWE SOUTHMarch2025</t>
-  </si>
-  <si>
-    <t>GOKWE SOUTH</t>
-  </si>
-  <si>
-    <t>Dongamuzi Rural Health Centre</t>
-  </si>
-  <si>
-    <t>Chemahororo Clinic</t>
-  </si>
-  <si>
-    <t>The chosen Facility  was already recorded for the time period February 2025 Choose a facility not yet recorded in the Server</t>
-  </si>
-  <si>
-    <t>The chosen Facility  was already recorded for the time period March 2025 Choose a facility not yet recorded in the Server</t>
-  </si>
-  <si>
-    <t>submission</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the  age group 15-19 yrs which equates to 5</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the  age group 15-19 yrs which equates to 2</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the  age group 20-24 yrs which equates to 0</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the  age group 20-24 yrs which equates to 5</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the  age group 25-29 yrs which equates to 0</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the age group 30-34 yrs, which equates to 0</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the age group 30-34 yrs, which equates to 2</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the age group 35-39 yrs, which equates to 0</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the age group 40-44 yrs, which equates to 0</t>
-  </si>
-  <si>
-    <t>Input must be equal to or less than the total MCs in the age group 45-49 yrs, which equates to 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input must be equal to or less than the total MCs in the age group 50+ yrs, which equates to </t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 15-19  which is  0</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 20-24  which is  0</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 20-24  which is  5</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 25-29  which is  0</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 30-34  which is  0</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 30-34  which is  2</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 35-39  which is  0</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 40-44  which is  0</t>
-  </si>
-  <si>
-    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 45-49  which is  0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 45-49  which is  </t>
-  </si>
-  <si>
-    <t>Age group(s)               need to be updated for HTS</t>
-  </si>
-  <si>
-    <t>15-19 yrs</t>
-  </si>
-  <si>
-    <t>20-24 yrs</t>
-  </si>
-  <si>
-    <t>25-29 yrs</t>
-  </si>
-  <si>
-    <t>30-34 yrs</t>
-  </si>
-  <si>
-    <t>35-39 yrs</t>
-  </si>
-  <si>
-    <t>40-44 yrs</t>
-  </si>
-  <si>
-    <t>45-49 yrs</t>
-  </si>
-  <si>
-    <t>50+ yrs</t>
-  </si>
-  <si>
-    <t>http://openrosa.org/jr/xforms</t>
-  </si>
-  <si>
-    <t>CommCare Android, version "2.56.1"(471796). App v113. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
-  </si>
-  <si>
-    <t>2.56.1</t>
-  </si>
-  <si>
-    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:30:59.606000Z</t>
-  </si>
-  <si>
-    <t>2025-05-19T12:17:25.297000Z</t>
-  </si>
-  <si>
-    <t>amutenha</t>
-  </si>
-  <si>
-    <t>March</t>
   </si>
   <si>
     <t>ZACH</t>
@@ -1365,13 +1464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:IF3"/>
+  <dimension ref="A1:JN3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:240">
+    <row r="1" spans="1:274">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2089,28 +2188,130 @@
       <c r="IF1" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
     </row>
-    <row r="2" spans="1:240">
+    <row r="2" spans="1:274">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="I2" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -2119,582 +2320,591 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="O2" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="Q2" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="R2" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="S2" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="T2" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="U2">
-        <v>13411</v>
+        <v>13348</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="W2" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="X2" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="Y2" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Z2" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="AB2" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="AC2" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="AD2" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="AE2" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="AF2" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AG2" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AH2" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AI2" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AJ2" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AK2" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AL2" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AM2" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AN2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AO2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AP2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AQ2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AR2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AS2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AT2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AU2" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="AV2" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="AW2" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="AX2" t="s">
-        <v>268</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>269</v>
+        <v>301</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>302</v>
       </c>
       <c r="AZ2" t="s">
-        <v>270</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>263</v>
+        <v>304</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="BB2" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="BC2" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="BD2" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="BE2" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="BF2" t="s">
-        <v>274</v>
+        <v>299</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>299</v>
       </c>
       <c r="BH2" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="BI2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>306</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>299</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>315</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>316</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>317</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>319</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>321</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>322</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>323</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>324</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>325</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>295</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>296</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>295</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>327</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>327</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>327</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>327</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>328</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>329</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>331</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>333</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>334</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>298</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>335</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>298</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>336</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>298</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>337</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>327</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>293</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>299</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>299</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>299</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>339</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>293</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>298</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>295</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>296</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>295</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>327</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>299</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>293</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>299</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>299</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>341</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>342</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>343</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>344</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>345</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>346</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>347</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>348</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>327</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>295</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>295</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>296</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>295</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>295</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GN2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GT2" t="s">
+        <v>299</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>293</v>
+      </c>
+      <c r="GV2" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>350</v>
+      </c>
+      <c r="GX2">
+        <v>116</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>351</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>352</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>299</v>
+      </c>
+      <c r="HC2" t="s">
         <v>276</v>
       </c>
-      <c r="BJ2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>261</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>277</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>273</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>280</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>282</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>270</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>263</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>284</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>262</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>285</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>287</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>289</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>290</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>292</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>293</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>294</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>295</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>296</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>297</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>297</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>298</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>299</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>301</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="HD2" t="s">
         <v>302</v>
       </c>
-      <c r="DW2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="HE2" t="s">
+        <v>353</v>
+      </c>
+      <c r="HF2" t="s">
         <v>304</v>
       </c>
-      <c r="DY2" t="s">
-        <v>262</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>305</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>262</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>306</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>307</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>297</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>296</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>263</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>263</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>263</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>263</v>
-      </c>
-      <c r="EZ2" t="s">
-        <v>308</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>296</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FH2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>262</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>296</v>
-      </c>
-      <c r="FN2" t="s">
-        <v>297</v>
-      </c>
-      <c r="FP2" t="s">
-        <v>263</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>296</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>263</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>263</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>309</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>310</v>
-      </c>
-      <c r="FV2" t="s">
-        <v>311</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>312</v>
-      </c>
-      <c r="FX2" t="s">
-        <v>313</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>314</v>
-      </c>
-      <c r="FZ2" t="s">
-        <v>315</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>316</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>297</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>296</v>
-      </c>
-      <c r="GD2" t="s">
-        <v>296</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GH2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GJ2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GL2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GN2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GP2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GR2" t="s">
-        <v>263</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>296</v>
-      </c>
-      <c r="GT2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>318</v>
-      </c>
-      <c r="GV2">
-        <v>113</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>319</v>
-      </c>
-      <c r="GX2" t="s">
-        <v>320</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>263</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>242</v>
-      </c>
-      <c r="HB2" t="s">
-        <v>266</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>321</v>
-      </c>
-      <c r="HD2" t="s">
-        <v>268</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>323</v>
-      </c>
-      <c r="HF2" t="s">
-        <v>272</v>
-      </c>
       <c r="HG2" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="HH2" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="HI2" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="HJ2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="HK2" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="HL2" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="HM2" t="s">
-        <v>318</v>
-      </c>
-      <c r="HN2">
-        <v>113</v>
+        <v>359</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>299</v>
       </c>
       <c r="HO2" t="s">
-        <v>319</v>
-      </c>
-      <c r="HP2" t="s">
-        <v>320</v>
+        <v>350</v>
+      </c>
+      <c r="HP2">
+        <v>116</v>
       </c>
       <c r="HQ2" t="s">
-        <v>263</v>
+        <v>351</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>352</v>
       </c>
       <c r="HS2" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="HU2" t="s">
-        <v>266</v>
-      </c>
-      <c r="HV2" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="HW2" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="HX2" t="s">
-        <v>323</v>
+        <v>353</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>304</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>355</v>
       </c>
     </row>
-    <row r="3" spans="1:240">
+    <row r="3" spans="1:274">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="I3" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -2703,580 +2913,655 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="O3" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="Q3" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="R3" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="S3" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="T3" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="U3">
-        <v>13241</v>
+        <v>14709</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="W3" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="X3" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="Y3" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="Z3" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="AB3" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="AC3" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="AD3" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AE3" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="AF3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AG3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AH3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AI3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AJ3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AK3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="AL3" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AM3" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="AN3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AO3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AP3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AQ3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AR3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AS3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AT3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="AU3" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="AV3" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="AW3" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="AX3" t="s">
-        <v>268</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>269</v>
+        <v>301</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>303</v>
       </c>
       <c r="AZ3" t="s">
-        <v>271</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>263</v>
+        <v>304</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="BB3" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="BC3" t="s">
-        <v>263</v>
+        <v>299</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>286</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>299</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>309</v>
       </c>
       <c r="BJ3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="BK3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="BL3" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="BM3" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="BN3" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="BO3" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="BP3" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="BQ3" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="BR3" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="BS3" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="BT3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="BU3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="BV3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="BW3" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="BX3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="BY3" t="s">
-        <v>263</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="CA3" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="CB3" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="CC3" t="s">
-        <v>263</v>
+        <v>298</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>298</v>
       </c>
       <c r="CE3" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="CF3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="CG3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="CH3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="CI3" t="s">
-        <v>262</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="CK3" t="s">
-        <v>262</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="CM3" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="CO3" t="s">
+        <v>320</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>321</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>322</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>323</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>324</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>325</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>295</v>
+      </c>
+      <c r="DA3" t="s">
         <v>286</v>
       </c>
-      <c r="CQ3" t="s">
-        <v>288</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>289</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>291</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>293</v>
-      </c>
-      <c r="DA3" t="s">
+      <c r="DB3" t="s">
+        <v>326</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>327</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>327</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>327</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>327</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>328</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>330</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>332</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>333</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>334</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>298</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>335</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>298</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>336</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>298</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>337</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>297</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>327</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>286</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>299</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>338</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>299</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>299</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>299</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>299</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>299</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>299</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>299</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>299</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>299</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>339</v>
+      </c>
+      <c r="FA3" t="s">
         <v>294</v>
       </c>
-      <c r="DC3" t="s">
+      <c r="FE3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>298</v>
+      </c>
+      <c r="FM3" t="s">
         <v>295</v>
       </c>
-      <c r="DD3" t="s">
-        <v>261</v>
-      </c>
-      <c r="DE3" t="s">
+      <c r="FN3" t="s">
+        <v>286</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>295</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>327</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>340</v>
+      </c>
+      <c r="FS3" t="s">
         <v>297</v>
       </c>
-      <c r="DF3" t="s">
+      <c r="FT3" t="s">
+        <v>299</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>299</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>341</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>342</v>
+      </c>
+      <c r="FX3" t="s">
+        <v>343</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>344</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>345</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>346</v>
+      </c>
+      <c r="GB3" t="s">
+        <v>347</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>348</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>327</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>295</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>295</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>286</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>286</v>
+      </c>
+      <c r="GI3" t="s">
         <v>297</v>
       </c>
-      <c r="DO3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>298</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>300</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>301</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DV3" t="s">
+      <c r="GJ3" t="s">
+        <v>297</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GN3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GP3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GR3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GT3" t="s">
+        <v>299</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>294</v>
+      </c>
+      <c r="GV3" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>350</v>
+      </c>
+      <c r="GX3">
+        <v>116</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>351</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>352</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>299</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>277</v>
+      </c>
+      <c r="HD3" t="s">
         <v>303</v>
       </c>
-      <c r="DW3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DX3" t="s">
+      <c r="HE3" t="s">
+        <v>354</v>
+      </c>
+      <c r="HF3" t="s">
         <v>304</v>
       </c>
-      <c r="DY3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>305</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>262</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>306</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>307</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>297</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>260</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>263</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>263</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>263</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>263</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>308</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>260</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>262</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>261</v>
-      </c>
-      <c r="FN3" t="s">
-        <v>297</v>
-      </c>
-      <c r="FP3" t="s">
-        <v>263</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>260</v>
-      </c>
-      <c r="FR3" t="s">
-        <v>263</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>263</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>309</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>310</v>
-      </c>
-      <c r="FV3" t="s">
-        <v>311</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>312</v>
-      </c>
-      <c r="FX3" t="s">
-        <v>313</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>314</v>
-      </c>
-      <c r="FZ3" t="s">
-        <v>315</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>316</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>297</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>261</v>
-      </c>
-      <c r="GD3" t="s">
-        <v>261</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>296</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>296</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GH3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>261</v>
-      </c>
-      <c r="GJ3" t="s">
-        <v>261</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GL3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GN3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GP3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GR3" t="s">
-        <v>263</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>260</v>
-      </c>
-      <c r="GT3" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>318</v>
-      </c>
-      <c r="GV3">
-        <v>113</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>319</v>
-      </c>
-      <c r="GX3" t="s">
-        <v>320</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>263</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>243</v>
-      </c>
-      <c r="HB3" t="s">
-        <v>267</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>322</v>
-      </c>
-      <c r="HD3" t="s">
-        <v>268</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>323</v>
-      </c>
-      <c r="HF3" t="s">
-        <v>324</v>
-      </c>
       <c r="HG3" t="s">
-        <v>274</v>
+        <v>355</v>
       </c>
       <c r="HH3" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="HI3" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="HJ3" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="HK3" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="HL3" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="HM3" t="s">
-        <v>318</v>
-      </c>
-      <c r="HN3">
-        <v>113</v>
+        <v>359</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>299</v>
       </c>
       <c r="HO3" t="s">
-        <v>319</v>
-      </c>
-      <c r="HP3" t="s">
-        <v>320</v>
+        <v>350</v>
+      </c>
+      <c r="HP3">
+        <v>116</v>
       </c>
       <c r="HQ3" t="s">
-        <v>263</v>
+        <v>351</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>352</v>
       </c>
       <c r="HS3" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="HU3" t="s">
-        <v>267</v>
-      </c>
-      <c r="HV3" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="HW3" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="HX3" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="HY3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="HZ3" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="IA3" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="IB3" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="IC3" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="ID3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="IE3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="IF3" t="s">
-        <v>261</v>
+        <v>298</v>
+      </c>
+      <c r="IG3" t="s">
+        <v>298</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>298</v>
+      </c>
+      <c r="II3" t="s">
+        <v>298</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>298</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>298</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>340</v>
+      </c>
+      <c r="IU3" t="s">
+        <v>327</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>327</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>298</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>298</v>
+      </c>
+      <c r="IY3" t="s">
+        <v>298</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JA3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>298</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>299</v>
+      </c>
+      <c r="JN3" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="AY2" r:id="rId3"/>
-    <hyperlink ref="GT2" r:id="rId4"/>
+    <hyperlink ref="BA2" r:id="rId3"/>
+    <hyperlink ref="GV2" r:id="rId4"/>
     <hyperlink ref="V3" r:id="rId5"/>
     <hyperlink ref="AA3" r:id="rId6"/>
-    <hyperlink ref="AY3" r:id="rId7"/>
-    <hyperlink ref="GT3" r:id="rId8"/>
+    <hyperlink ref="BA3" r:id="rId7"/>
+    <hyperlink ref="GV3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -13,15 +13,1511 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="492">
+  <si>
+    <t>app_id</t>
+  </si>
+  <si>
+    <t>archived</t>
+  </si>
+  <si>
+    <t>build_id</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>edited_by_user_id</t>
+  </si>
+  <si>
+    <t>edited_on</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>indexed_on</t>
+  </si>
+  <si>
+    <t>initial_processing_complete</t>
+  </si>
+  <si>
+    <t>is_phone_submission</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>received_on</t>
+  </si>
+  <si>
+    <t>resource_uri</t>
+  </si>
+  <si>
+    <t>server_modified_on</t>
+  </si>
+  <si>
+    <t>submit_ip</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>uiversion</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>attachments.form.xml.content_type</t>
+  </si>
+  <si>
+    <t>attachments.form.xml.length</t>
+  </si>
+  <si>
+    <t>attachments.form.xml.url</t>
+  </si>
+  <si>
+    <t>form.#type</t>
+  </si>
+  <si>
+    <t>form.@name</t>
+  </si>
+  <si>
+    <t>form.@uiVersion</t>
+  </si>
+  <si>
+    <t>form.@version</t>
+  </si>
+  <si>
+    <t>form.@xmlns</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.AERecordingMonth</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.AERecordingSite</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.AERecordingYear</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.cancelthisAEReport</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.aeComments</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.ae_classification</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.ae_type_code</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.checkMonthValidation</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.checkYearValidation</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.circumcising_cadre</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.client_age</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.date_ae_identified</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.mcMethod</t>
+  </si>
+  <si>
+    <t>form.adverse_events.question3.question1.question1.vmmc_number</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.followUpTotal</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu20-24</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu25-29</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu15-19</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu20-24</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu25-29</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu30-34</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu35-39</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu40-44</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu45-49</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.initialfu50</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateIfAnyFuNotSelected</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu15-19</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu20-24</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu25-29</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu30-34</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu35-39</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu40-44</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu45-49</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validateNotSelectedfu50</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.validatefuString</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.@case_id</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.@date_modified</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.@user_id</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.@xmlns</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.update.savedFacilities</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-grpHTS.kpLinkagesList.high_risk_referrals_to_care</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-grpHTS.linkages_due_to_hiv_test_results.total_hiv_negative_linked_to_prep</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-grpHTS.linkages_due_to_hiv_test_results.total_hiv_positive_linked_to_care</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-grpHTS.referralToOtherServices</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-grpHTS.referrals_to_sti_and_srh_services.total_mcs_referred_for_srh_services</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-grpHTS.referrals_to_sti_and_srh_services.total_mcs_referred_for_sti_services</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.District</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.checkifFacilityHasBeenSaved</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.countofFacilityinReportedData</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.currentFacilityAlias</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.facilityName</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.facilityValidation</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mc15-19calculated</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mc20-24calculated</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mc25-29calculated</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mc30-34calculated</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mc35-39calculated</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mc40-44calculated</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mc45-49calculated</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.mccalculated50</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.savedFacilities</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.totalHIVPositiveNC</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.totalhivNegativeNC</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.uncircumcisedClientsForHTS</t>
+  </si>
+  <si>
+    <t>form.formSubmissionList.formType</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv15-19calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv20-24calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv25-29calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv30-34calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv35-39calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv40-44calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv45-49calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv50calculated</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative15-19Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative15-19Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative20-24Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative20-24Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative25-29Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative25-29Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative30-34Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative30-34Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative35-39Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative35-39Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative40-44Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative40-44Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative45-49Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative45-49Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative50Qst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hivNegative50Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative25-29</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivnegative20-24sqt</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivnegative25-29sqt</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv15-19PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv20-24PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv25-29PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv30-34PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv35-39PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv40-44PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv45-49PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv50PosQst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive15-19Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive15-19Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive20-24Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive20-24Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive25-29Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive25-29Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive30-34Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive30-34Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive35-39Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive35-39Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive40-44Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive40-44Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive45-49Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive45-49Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive50Calculation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive50Validation</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total15-19HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total20-24HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total25-29HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total30-34HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total35-39HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total40-44HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total45-49HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total50HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVPositive</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVUntested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalhivNegative</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS15-19</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS25-29</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS30-34</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS35-39</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS40-44</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS45-49</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateHTS50</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validateInclusionofHTSGRPS</t>
+  </si>
+  <si>
+    <t>form.grpHTS.validationHTSString</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.TotalMCsBYMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.correctionFormSgSum</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.correctionFormShangringSum</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.correctionFormSrSum</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg35-39</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg40-44</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg45-49</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.initialsg50</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.copy-1-of-question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.copy-2-of-question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr35-39</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr40-44</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr45-49</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.initialsr50</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr15-19Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr20-24Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr25-29Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr30-34Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr35-39Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr40-44Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr45-49Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sr50Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.total50ByMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalShangringMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalDisposableMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
+  </si>
+  <si>
+    <t>form.mc35-39CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age15-19Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age20-24Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age25-29Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age30-34Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age35-39Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age40-44Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age45-49Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.age50Title</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc15-19</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc15-19CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc20-24</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc20-24CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc25-29</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc25-29CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc30-34</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc30-34CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc35-39</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc35-39CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc40-44</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc40-44CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc45-49</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc45-49CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc50</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc50CorrectionValue</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.totalMCs</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.recordingMonth</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.year</t>
+  </si>
+  <si>
+    <t>form.recording_period.copy-1-of-showName</t>
+  </si>
+  <si>
+    <t>form.recording_period.organisation</t>
+  </si>
+  <si>
+    <t>form.recording_period.showName</t>
+  </si>
+  <si>
+    <t>form.recording_period.username</t>
+  </si>
+  <si>
+    <t>form.totalAES</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu15-19</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv15-19NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv20-24NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv25-29NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv30-34NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv35-39NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv40-44NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv45-49NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hiv50NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC15-19</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC15-19calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC20-24</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC20-24calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC25-29</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC25-29calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC30-34</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC30-34calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC35-39</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC35-39calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC40-44</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC40-44calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC45-49</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC45-49calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC50</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC50calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_negativeList.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos15-19NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos20-24NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos25-29NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos30-34NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos35-39NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos40-44NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos45-49NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPos50NCQs</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC15-19</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC15-19calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC20-24</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC20-24calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC25-29</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC25-29calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC30-34</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC30-34calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC35-39</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC35-39calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC40-44</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC40-44calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC45-49</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC45-49calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC50</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.hivPositiveNC50calculation</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total15-19NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total20-24NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total25-29NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total30-34NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total35-39NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total40-44NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total45-49NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total50NCHIVTested</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.hiv_positiveList.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivnegative15-19qst</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable15-19</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu30-34</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-grpHTS.other_referrals_in_detail</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative30-34</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivnegative30-34sqt</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv15-19posqst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv20-24posqst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv25-29posqst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hiv30-34posqst</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive15-19</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive25-29</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.copy-1-of-question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.copy-3-of-question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh35-39</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh40-44</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh45-49</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.initialsh50</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh15-19Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh20-24Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh25-29Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh30-34Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh35-39Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh40-44Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh45-49Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.sh50Question</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.shangring15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.shangring20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.shangring30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.total_shangringMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.copy-8-of-question1</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable30-34</t>
+  </si>
+  <si>
+    <t>6a11bca4c881210cf9c483b6820268e0</t>
+  </si>
+  <si>
+    <t>a4d17769e182416f94e4ac069e213710</t>
+  </si>
+  <si>
+    <t>zdip-qa</t>
+  </si>
+  <si>
+    <t>b6c46b5a-2ab7-4c36-86f9-d19a82aa967c</t>
+  </si>
+  <si>
+    <t>83204fd8-817e-4935-a20e-430ad73c19f6</t>
+  </si>
+  <si>
+    <t>2b99be3f-b11f-414b-818b-ee045b68487f</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:43:55.975248Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:39:39.477440Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:34:35.378687Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:43:55.809685Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:39:16.894645Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:34:08.275733Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:43:55.924575Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:39:16.935567Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:34:08.359047Z</t>
+  </si>
+  <si>
+    <t>41.60.104.218</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>text/xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/b6c46b5a-2ab7-4c36-86f9-d19a82aa967c/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/83204fd8-817e-4935-a20e-430ad73c19f6/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/2b99be3f-b11f-414b-818b-ee045b68487f/form.xml</t>
+  </si>
+  <si>
+    <t>ZAZIC COLLECTION FORM</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/formdesigner/D87D048D-B77D-4142-8E22-8B67A5FFA08C</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Beula</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>antibiotic and health education</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>C IN 2</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>Surgical</t>
+  </si>
+  <si>
+    <t>2025M00009</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Age group(s)               need to be updated for Client Follow-up Section</t>
+  </si>
+  <si>
+    <t>4d92c93cdd2f4552b27e3ad1c99520f3</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:43:54.902000Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:39:15.739000Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:34:06.522000Z</t>
+  </si>
+  <si>
+    <t>f5560ed9d3e4447cb87fef70096e3f34</t>
+  </si>
+  <si>
+    <t>http://commcarehq.org/case/transaction/v2</t>
+  </si>
+  <si>
+    <t>CHITUNGWIZAZengeza ClinicApril2025MATOBONatisaApril2025MATOBOBeulaApril2025</t>
+  </si>
+  <si>
+    <t>CHITUNGWIZAZengeza ClinicApril2025MATOBONatisaApril2025</t>
+  </si>
+  <si>
+    <t>CHITUNGWIZAZengeza ClinicApril2025</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>MATOBO</t>
+  </si>
+  <si>
+    <t>CHITUNGWIZA</t>
+  </si>
+  <si>
+    <t>MATOBOBeulaApril2025</t>
+  </si>
+  <si>
+    <t>MATOBONatisaApril2025</t>
+  </si>
+  <si>
+    <t>Natisa</t>
+  </si>
+  <si>
+    <t>Zengeza Clinic</t>
+  </si>
+  <si>
+    <t>The chosen Facility  was already recorded for the time period April 2025 Choose a facility not yet recorded in the Server</t>
+  </si>
+  <si>
+    <t>submission</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 15-19 yrs which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 15-19 yrs which equates to 7</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 15-19 yrs which equates to 85</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 20-24 yrs which equates to 6</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 20-24 yrs which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 20-24 yrs which equates to 75</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 25-29 yrs which equates to 5</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 25-29 yrs which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the  age group 25-29 yrs which equates to 69</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 30-34 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 30-34 yrs, which equates to 10</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 35-39 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 40-44 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t>Input must be equal to or less than the total MCs in the age group 45-49 yrs, which equates to 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input must be equal to or less than the total MCs in the age group 50+ yrs, which equates to </t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 15-19  which is  NaN</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 15-19  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 15-19  which is  21</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 20-24  which is  6</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 20-24  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 20-24  which is  75</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 25-29  which is  5</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 25-29  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 25-29  which is  69</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 30-34  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 30-34  which is  10</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 35-39  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 40-44  which is  0</t>
+  </si>
+  <si>
+    <t>The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 45-49  which is  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The provided value is greater than the difference between the total MCs and the MCs who tested HIV Negative in the age group 45-49  which is  </t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>Age group(s)               need to be updated for HTS</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>15-19 yrs</t>
+  </si>
+  <si>
+    <t>20-24 yrs</t>
+  </si>
+  <si>
+    <t>25-29 yrs</t>
+  </si>
+  <si>
+    <t>30-34 yrs</t>
+  </si>
+  <si>
+    <t>35-39 yrs</t>
+  </si>
+  <si>
+    <t>40-44 yrs</t>
+  </si>
+  <si>
+    <t>45-49 yrs</t>
+  </si>
+  <si>
+    <t>50+ yrs</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/jr/xforms</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.56.1"(471796). App v124. CommCare Version 2.56.1. Build 471796, built on: 2025-05-12</t>
+  </si>
+  <si>
+    <t>2.56.1</t>
+  </si>
+  <si>
+    <t>commcare_c0bf9f85-6d1f-4563-a7b5-e60f61118366</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:39:40.695000Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T09:34:29.623000Z</t>
+  </si>
+  <si>
+    <t>2025-05-22T08:55:19.228000Z</t>
+  </si>
+  <si>
+    <t>percy</t>
+  </si>
+  <si>
+    <t>ZICHIRE</t>
+  </si>
+  <si>
+    <t>Pesanai</t>
+  </si>
+  <si>
+    <t>[{'ReferrelRecordingMonth': 'April', 'ReferrelRecordingSite': 'CHITUNGWIZA', 'ReferrelRecordingYear': '2025', 'question1': {'cancelthisReferralReport': '', 'question5': {'reason_for_referral': 'hypertensive', 'services_referred': 'OPD'}}}, {'ReferrelRecordingMonth': 'April', 'ReferrelRecordingSite': 'CHITUNGWIZA', 'ReferrelRecordingYear': '2025', 'question1': {'cancelthisReferralReport': '1'}}]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +1528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,14 +1536,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -340,12 +1860,3389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:NC4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:367">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="DW1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="DX1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="DY1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="EA1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="EB1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="EC1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="EK1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="EL1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="EM1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="ET1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="EU1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="EV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="EX1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="EY1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="EZ1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="FA1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="FB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="FC1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="FD1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="FE1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="FF1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="FG1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="FH1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="FI1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="FJ1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="FK1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="FP1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="FQ1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="FR1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="FS1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="FT1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="FU1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="FV1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="FW1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="FX1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="FY1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="FZ1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="GA1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="GB1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="GC1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="GD1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GE1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GF1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="GG1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="GH1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="GI1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="GJ1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="GK1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:367">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>375</v>
+      </c>
+      <c r="O2" t="s">
+        <v>378</v>
+      </c>
+      <c r="P2" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>382</v>
+      </c>
+      <c r="R2" t="s">
+        <v>383</v>
+      </c>
+      <c r="S2" t="s">
+        <v>384</v>
+      </c>
+      <c r="T2" t="s">
+        <v>385</v>
+      </c>
+      <c r="U2">
+        <v>13010</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="W2" t="s">
+        <v>382</v>
+      </c>
+      <c r="X2" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>396</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>383</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>397</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>398</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>405</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>409</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>409</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>411</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>413</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>416</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>418</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>423</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>410</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>425</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>392</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>429</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>418</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>410</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>430</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>409</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>431</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>434</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>437</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>440</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>442</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>443</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>444</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>445</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>405</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>407</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>448</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>448</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>448</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>449</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>452</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>455</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>458</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>460</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>461</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>462</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>409</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>463</v>
+      </c>
+      <c r="EX2" t="s">
+        <v>448</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>410</v>
+      </c>
+      <c r="EZ2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>402</v>
+      </c>
+      <c r="FB2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FD2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>467</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>402</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FV2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>409</v>
+      </c>
+      <c r="FX2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>410</v>
+      </c>
+      <c r="FZ2" t="s">
+        <v>448</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>448</v>
+      </c>
+      <c r="GB2" t="s">
+        <v>448</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GD2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GF2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GH2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>409</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>405</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>407</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>448</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>410</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>410</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>402</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>470</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>471</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>472</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>474</v>
+      </c>
+      <c r="HF2" t="s">
+        <v>475</v>
+      </c>
+      <c r="HG2" t="s">
+        <v>476</v>
+      </c>
+      <c r="HH2" t="s">
+        <v>477</v>
+      </c>
+      <c r="HI2" t="s">
+        <v>448</v>
+      </c>
+      <c r="HJ2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HK2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HL2" t="s">
+        <v>405</v>
+      </c>
+      <c r="HM2" t="s">
+        <v>405</v>
+      </c>
+      <c r="HN2" t="s">
+        <v>407</v>
+      </c>
+      <c r="HO2" t="s">
+        <v>407</v>
+      </c>
+      <c r="HP2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HQ2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HR2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HS2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HT2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HU2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HV2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>410</v>
+      </c>
+      <c r="HZ2" t="s">
+        <v>402</v>
+      </c>
+      <c r="IA2" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="IB2" t="s">
+        <v>481</v>
+      </c>
+      <c r="IC2">
+        <v>124</v>
+      </c>
+      <c r="ID2" t="s">
+        <v>482</v>
+      </c>
+      <c r="IE2" t="s">
+        <v>483</v>
+      </c>
+      <c r="IF2" t="s">
+        <v>410</v>
+      </c>
+      <c r="IH2" t="s">
+        <v>369</v>
+      </c>
+      <c r="II2" t="s">
+        <v>413</v>
+      </c>
+      <c r="IJ2" t="s">
+        <v>484</v>
+      </c>
+      <c r="IK2" t="s">
+        <v>416</v>
+      </c>
+      <c r="IL2" t="s">
+        <v>487</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>391</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>393</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>448</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>488</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>448</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>489</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>383</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>481</v>
+      </c>
+      <c r="IU2">
+        <v>124</v>
+      </c>
+      <c r="IV2" t="s">
+        <v>482</v>
+      </c>
+      <c r="IW2" t="s">
+        <v>483</v>
+      </c>
+      <c r="IX2" t="s">
+        <v>410</v>
+      </c>
+      <c r="IZ2" t="s">
+        <v>369</v>
+      </c>
+      <c r="JB2" t="s">
+        <v>413</v>
+      </c>
+      <c r="JC2" t="s">
+        <v>484</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>416</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:367">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E3" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>376</v>
+      </c>
+      <c r="O3" t="s">
+        <v>379</v>
+      </c>
+      <c r="P3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>382</v>
+      </c>
+      <c r="R3" t="s">
+        <v>383</v>
+      </c>
+      <c r="S3" t="s">
+        <v>384</v>
+      </c>
+      <c r="T3" t="s">
+        <v>385</v>
+      </c>
+      <c r="U3">
+        <v>14754</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="W3" t="s">
+        <v>382</v>
+      </c>
+      <c r="X3" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>403</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>409</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>411</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>414</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>416</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>419</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>383</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>423</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>410</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>426</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>427</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>429</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>419</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>410</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>383</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>430</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>409</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>432</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>435</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>438</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>440</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>442</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>443</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>444</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>445</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>448</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>450</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>453</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>456</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>458</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>460</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>461</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>462</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>409</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>463</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>448</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>410</v>
+      </c>
+      <c r="EZ3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>403</v>
+      </c>
+      <c r="FB3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FD3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FH3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>410</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>467</v>
+      </c>
+      <c r="FL3" t="s">
+        <v>403</v>
+      </c>
+      <c r="FP3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FR3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FV3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>409</v>
+      </c>
+      <c r="FZ3" t="s">
+        <v>448</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GD3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GF3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GH3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>448</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>410</v>
+      </c>
+      <c r="GX3" t="s">
+        <v>410</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>403</v>
+      </c>
+      <c r="GZ3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>470</v>
+      </c>
+      <c r="HB3" t="s">
+        <v>471</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>472</v>
+      </c>
+      <c r="HD3" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>474</v>
+      </c>
+      <c r="HF3" t="s">
+        <v>475</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>476</v>
+      </c>
+      <c r="HH3" t="s">
+        <v>477</v>
+      </c>
+      <c r="HI3" t="s">
+        <v>448</v>
+      </c>
+      <c r="HJ3" t="s">
+        <v>403</v>
+      </c>
+      <c r="HK3" t="s">
+        <v>403</v>
+      </c>
+      <c r="HL3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HM3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HN3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HO3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HP3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HQ3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HR3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HS3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HT3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HU3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HV3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HY3" t="s">
+        <v>410</v>
+      </c>
+      <c r="HZ3" t="s">
+        <v>403</v>
+      </c>
+      <c r="IA3" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="IB3" t="s">
+        <v>481</v>
+      </c>
+      <c r="IC3">
+        <v>124</v>
+      </c>
+      <c r="ID3" t="s">
+        <v>482</v>
+      </c>
+      <c r="IE3" t="s">
+        <v>483</v>
+      </c>
+      <c r="IF3" t="s">
+        <v>410</v>
+      </c>
+      <c r="IH3" t="s">
+        <v>370</v>
+      </c>
+      <c r="II3" t="s">
+        <v>414</v>
+      </c>
+      <c r="IJ3" t="s">
+        <v>485</v>
+      </c>
+      <c r="IK3" t="s">
+        <v>416</v>
+      </c>
+      <c r="IL3" t="s">
+        <v>487</v>
+      </c>
+      <c r="IM3" t="s">
+        <v>391</v>
+      </c>
+      <c r="IN3" t="s">
+        <v>393</v>
+      </c>
+      <c r="IO3" t="s">
+        <v>448</v>
+      </c>
+      <c r="IP3" t="s">
+        <v>488</v>
+      </c>
+      <c r="IQ3" t="s">
+        <v>448</v>
+      </c>
+      <c r="IR3" t="s">
+        <v>489</v>
+      </c>
+      <c r="IS3" t="s">
+        <v>410</v>
+      </c>
+      <c r="IT3" t="s">
+        <v>481</v>
+      </c>
+      <c r="IU3">
+        <v>124</v>
+      </c>
+      <c r="IV3" t="s">
+        <v>482</v>
+      </c>
+      <c r="IW3" t="s">
+        <v>483</v>
+      </c>
+      <c r="IX3" t="s">
+        <v>410</v>
+      </c>
+      <c r="IZ3" t="s">
+        <v>370</v>
+      </c>
+      <c r="JB3" t="s">
+        <v>414</v>
+      </c>
+      <c r="JC3" t="s">
+        <v>485</v>
+      </c>
+      <c r="JD3" t="s">
+        <v>416</v>
+      </c>
+      <c r="JE3" t="s">
+        <v>487</v>
+      </c>
+      <c r="JF3" t="s">
+        <v>403</v>
+      </c>
+      <c r="JO3" t="s">
+        <v>410</v>
+      </c>
+      <c r="JP3" t="s">
+        <v>409</v>
+      </c>
+      <c r="JQ3" t="s">
+        <v>383</v>
+      </c>
+      <c r="JR3" t="s">
+        <v>409</v>
+      </c>
+      <c r="JS3" t="s">
+        <v>410</v>
+      </c>
+      <c r="JT3" t="s">
+        <v>409</v>
+      </c>
+      <c r="JU3" t="s">
+        <v>410</v>
+      </c>
+      <c r="JV3" t="s">
+        <v>409</v>
+      </c>
+      <c r="JW3" t="s">
+        <v>410</v>
+      </c>
+      <c r="JX3" t="s">
+        <v>409</v>
+      </c>
+      <c r="JY3" t="s">
+        <v>410</v>
+      </c>
+      <c r="JZ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KA3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KB3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KC3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KD3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KE3" t="s">
+        <v>448</v>
+      </c>
+      <c r="KN3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KO3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KP3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KQ3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KR3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KS3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KT3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KU3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KV3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KW3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KX3" t="s">
+        <v>410</v>
+      </c>
+      <c r="KY3" t="s">
+        <v>409</v>
+      </c>
+      <c r="KZ3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LA3" t="s">
+        <v>409</v>
+      </c>
+      <c r="LB3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LC3" t="s">
+        <v>409</v>
+      </c>
+      <c r="LD3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LE3" t="s">
+        <v>383</v>
+      </c>
+      <c r="LF3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LG3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LH3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LI3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LJ3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LK3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LL3" t="s">
+        <v>448</v>
+      </c>
+      <c r="LM3" t="s">
+        <v>403</v>
+      </c>
+      <c r="LN3" t="s">
+        <v>448</v>
+      </c>
+      <c r="LO3" t="s">
+        <v>410</v>
+      </c>
+      <c r="LP3" t="s">
+        <v>448</v>
+      </c>
+      <c r="LQ3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:367">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H4" t="s">
+        <v>371</v>
+      </c>
+      <c r="I4" t="s">
+        <v>374</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>377</v>
+      </c>
+      <c r="O4" t="s">
+        <v>380</v>
+      </c>
+      <c r="P4" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>382</v>
+      </c>
+      <c r="R4" t="s">
+        <v>383</v>
+      </c>
+      <c r="S4" t="s">
+        <v>384</v>
+      </c>
+      <c r="T4" t="s">
+        <v>385</v>
+      </c>
+      <c r="U4">
+        <v>17321</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="W4" t="s">
+        <v>382</v>
+      </c>
+      <c r="X4" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>404</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>406</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>408</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>409</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>411</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>412</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>415</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>416</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>420</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>421</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>383</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>383</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>422</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>424</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>410</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>420</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>428</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>429</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>420</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>383</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>410</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>383</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>430</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>409</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>433</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>436</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>439</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>441</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>442</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>443</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>444</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>445</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>446</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>447</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>448</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>448</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>448</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>451</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>454</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>457</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>459</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>460</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>461</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>462</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>409</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>463</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>464</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>446</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>447</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>403</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>448</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>410</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>465</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>466</v>
+      </c>
+      <c r="FB4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>467</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>404</v>
+      </c>
+      <c r="FP4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FT4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FV4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>409</v>
+      </c>
+      <c r="FX4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>410</v>
+      </c>
+      <c r="FZ4" t="s">
+        <v>448</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>448</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>448</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GD4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GF4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GH4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>468</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>408</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>448</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>422</v>
+      </c>
+      <c r="GX4" t="s">
+        <v>410</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>469</v>
+      </c>
+      <c r="GZ4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>470</v>
+      </c>
+      <c r="HB4" t="s">
+        <v>471</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>472</v>
+      </c>
+      <c r="HD4" t="s">
+        <v>473</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>474</v>
+      </c>
+      <c r="HF4" t="s">
+        <v>475</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>476</v>
+      </c>
+      <c r="HH4" t="s">
+        <v>477</v>
+      </c>
+      <c r="HI4" t="s">
+        <v>448</v>
+      </c>
+      <c r="HJ4" t="s">
+        <v>478</v>
+      </c>
+      <c r="HK4" t="s">
+        <v>478</v>
+      </c>
+      <c r="HL4" t="s">
+        <v>406</v>
+      </c>
+      <c r="HM4" t="s">
+        <v>406</v>
+      </c>
+      <c r="HN4" t="s">
+        <v>408</v>
+      </c>
+      <c r="HO4" t="s">
+        <v>408</v>
+      </c>
+      <c r="HP4" t="s">
+        <v>479</v>
+      </c>
+      <c r="HQ4" t="s">
+        <v>479</v>
+      </c>
+      <c r="HR4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HS4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HT4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HU4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HV4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HY4" t="s">
+        <v>410</v>
+      </c>
+      <c r="HZ4" t="s">
+        <v>404</v>
+      </c>
+      <c r="IA4" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="IB4" t="s">
+        <v>481</v>
+      </c>
+      <c r="IC4">
+        <v>124</v>
+      </c>
+      <c r="ID4" t="s">
+        <v>482</v>
+      </c>
+      <c r="IE4" t="s">
+        <v>483</v>
+      </c>
+      <c r="IF4" t="s">
+        <v>410</v>
+      </c>
+      <c r="IH4" t="s">
+        <v>371</v>
+      </c>
+      <c r="II4" t="s">
+        <v>415</v>
+      </c>
+      <c r="IJ4" t="s">
+        <v>486</v>
+      </c>
+      <c r="IK4" t="s">
+        <v>416</v>
+      </c>
+      <c r="IL4" t="s">
+        <v>487</v>
+      </c>
+      <c r="IM4" t="s">
+        <v>391</v>
+      </c>
+      <c r="IN4" t="s">
+        <v>393</v>
+      </c>
+      <c r="IO4" t="s">
+        <v>448</v>
+      </c>
+      <c r="IP4" t="s">
+        <v>488</v>
+      </c>
+      <c r="IQ4" t="s">
+        <v>448</v>
+      </c>
+      <c r="IR4" t="s">
+        <v>489</v>
+      </c>
+      <c r="IS4" t="s">
+        <v>410</v>
+      </c>
+      <c r="IT4" t="s">
+        <v>481</v>
+      </c>
+      <c r="IU4">
+        <v>124</v>
+      </c>
+      <c r="IV4" t="s">
+        <v>482</v>
+      </c>
+      <c r="IW4" t="s">
+        <v>483</v>
+      </c>
+      <c r="IX4" t="s">
+        <v>410</v>
+      </c>
+      <c r="IZ4" t="s">
+        <v>371</v>
+      </c>
+      <c r="JB4" t="s">
+        <v>415</v>
+      </c>
+      <c r="JC4" t="s">
+        <v>486</v>
+      </c>
+      <c r="JD4" t="s">
+        <v>416</v>
+      </c>
+      <c r="JE4" t="s">
+        <v>487</v>
+      </c>
+      <c r="JF4" t="s">
+        <v>478</v>
+      </c>
+      <c r="JO4" t="s">
+        <v>410</v>
+      </c>
+      <c r="JP4" t="s">
+        <v>409</v>
+      </c>
+      <c r="JQ4" t="s">
+        <v>410</v>
+      </c>
+      <c r="JR4" t="s">
+        <v>409</v>
+      </c>
+      <c r="JS4" t="s">
+        <v>410</v>
+      </c>
+      <c r="JT4" t="s">
+        <v>409</v>
+      </c>
+      <c r="JU4" t="s">
+        <v>410</v>
+      </c>
+      <c r="JV4" t="s">
+        <v>409</v>
+      </c>
+      <c r="JW4" t="s">
+        <v>410</v>
+      </c>
+      <c r="JX4" t="s">
+        <v>409</v>
+      </c>
+      <c r="JY4" t="s">
+        <v>410</v>
+      </c>
+      <c r="JZ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KA4" t="s">
+        <v>410</v>
+      </c>
+      <c r="KB4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KC4" t="s">
+        <v>410</v>
+      </c>
+      <c r="KD4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KE4" t="s">
+        <v>448</v>
+      </c>
+      <c r="KN4" t="s">
+        <v>410</v>
+      </c>
+      <c r="KO4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KP4" t="s">
+        <v>383</v>
+      </c>
+      <c r="KQ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KR4" t="s">
+        <v>410</v>
+      </c>
+      <c r="KS4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KT4" t="s">
+        <v>410</v>
+      </c>
+      <c r="KU4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KV4" t="s">
+        <v>410</v>
+      </c>
+      <c r="KW4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KX4" t="s">
+        <v>410</v>
+      </c>
+      <c r="KY4" t="s">
+        <v>409</v>
+      </c>
+      <c r="KZ4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LA4" t="s">
+        <v>409</v>
+      </c>
+      <c r="LB4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LC4" t="s">
+        <v>409</v>
+      </c>
+      <c r="LD4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LE4" t="s">
+        <v>383</v>
+      </c>
+      <c r="LF4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LG4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LH4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LI4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LJ4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LK4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LL4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LM4" t="s">
+        <v>464</v>
+      </c>
+      <c r="LN4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LO4" t="s">
+        <v>410</v>
+      </c>
+      <c r="LP4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LQ4" t="s">
+        <v>468</v>
+      </c>
+      <c r="LR4" t="s">
+        <v>479</v>
+      </c>
+      <c r="LS4" t="s">
+        <v>490</v>
+      </c>
+      <c r="LT4" t="s">
+        <v>403</v>
+      </c>
+      <c r="LU4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LV4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LW4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LX4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LY4" t="s">
+        <v>448</v>
+      </c>
+      <c r="LZ4" t="s">
+        <v>410</v>
+      </c>
+      <c r="MA4" t="s">
+        <v>410</v>
+      </c>
+      <c r="MB4" t="s">
+        <v>410</v>
+      </c>
+      <c r="MC4" t="s">
+        <v>410</v>
+      </c>
+      <c r="MD4" t="s">
+        <v>448</v>
+      </c>
+      <c r="ME4" t="s">
+        <v>448</v>
+      </c>
+      <c r="MF4" t="s">
+        <v>409</v>
+      </c>
+      <c r="MG4" t="s">
+        <v>409</v>
+      </c>
+      <c r="MH4" t="s">
+        <v>409</v>
+      </c>
+      <c r="MI4" t="s">
+        <v>409</v>
+      </c>
+      <c r="MJ4" t="s">
+        <v>409</v>
+      </c>
+      <c r="MK4" t="s">
+        <v>409</v>
+      </c>
+      <c r="ML4" t="s">
+        <v>409</v>
+      </c>
+      <c r="MM4" t="s">
+        <v>409</v>
+      </c>
+      <c r="MN4" t="s">
+        <v>448</v>
+      </c>
+      <c r="MW4" t="s">
+        <v>402</v>
+      </c>
+      <c r="MX4" t="s">
+        <v>383</v>
+      </c>
+      <c r="MY4" t="s">
+        <v>383</v>
+      </c>
+      <c r="MZ4" t="s">
+        <v>448</v>
+      </c>
+      <c r="NA4" t="s">
+        <v>410</v>
+      </c>
+      <c r="NB4" t="s">
+        <v>448</v>
+      </c>
+      <c r="NC4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V2" r:id="rId1"/>
+    <hyperlink ref="AA2" r:id="rId2"/>
+    <hyperlink ref="BN2" r:id="rId3"/>
+    <hyperlink ref="IA2" r:id="rId4"/>
+    <hyperlink ref="V3" r:id="rId5"/>
+    <hyperlink ref="AA3" r:id="rId6"/>
+    <hyperlink ref="BN3" r:id="rId7"/>
+    <hyperlink ref="IA3" r:id="rId8"/>
+    <hyperlink ref="V4" r:id="rId9"/>
+    <hyperlink ref="AA4" r:id="rId10"/>
+    <hyperlink ref="BN4" r:id="rId11"/>
+    <hyperlink ref="IA4" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>